--- a/biology/Zoologie/Bulldog_anglais/Bulldog_anglais.xlsx
+++ b/biology/Zoologie/Bulldog_anglais/Bulldog_anglais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bouledogue ou bulldog anglais est une race de chien du type molosse. Le bulldog anglais (littéralement, en anglais, « chien-taureau ») est un chien trouvant naturellement son origine en Grande-Bretagne. Son apparition a été favorisée par le développement d'un sport apparu au XIIIe siècle : le combat entre chien et taureau désigné en anglais comme bullbaiting.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'interdiction du bullbaiting, en 1835, le bulldog anglais disparait quasiment, jusqu’à ce que des passionnés de cette race tels que Bill George (en) se mobilisent pour la sauver.
 Celle-ci est remaniée de façon à produire un chien équilibré dans son caractère et son comportement. Ainsi le redouté combattant des arènes qui défiait les taureaux devient un chien peu agressif, un animal de compagnie réputé au contraire pour son tempérament peu actif.
@@ -544,7 +558,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bulldog anglais est l'un des emblèmes les plus fameux du Royaume-Uni.
 Les babines pendantes sont constitutives du principal trait physique de cette race.
@@ -583,10 +599,12 @@
           <t>Tempérament</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bulldogs sont de nature plutôt calme. Ils aiment jouer mais n'ont cependant pas beaucoup d'endurance. Ils sont très sociables et demandent beaucoup d'affection. Ils sont très loyaux envers leur maître et s'attachent très vite.
-Ils n'apprécient pas les hautes chaleurs[1].
+Ils n'apprécient pas les hautes chaleurs.
 </t>
         </is>
       </c>
@@ -615,16 +633,16 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est si sujette aux problèmes de santé que des voix s’élèvent contre des excès de sélection ayant mené à des standards délétères[2].
-Sa résistance à l'effort et aux fortes chaleurs est limitée. En effet, du fait de leur museau aplati, ils ont du mal à respirer et sont donc peu endurants[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est si sujette aux problèmes de santé que des voix s’élèvent contre des excès de sélection ayant mené à des standards délétères.
+Sa résistance à l'effort et aux fortes chaleurs est limitée. En effet, du fait de leur museau aplati, ils ont du mal à respirer et sont donc peu endurants.
 Le bulldog anglais peut avoir des problèmes de dos. C'est aussi une race propice à l'hypoplasie de la trachée. Les bulldogs ont parfois un syndrome brachycéphale, un voile du palais trop long et une sténose des narines, ce qui nécessite une chirurgie corrective.
-Outre certaines difficultés d'accouplement, la mise-bas pose fréquemment problème en raison de la conformation particulière des chiots (large boîte crânienne) et de l'étroitesse de la filière pelvienne de la mère. La césarienne, indispensable pour la survie des chiots et de la mère, est ainsi réalisée dans 80 % des cas[4],[5]. Après la naissance, la mère peut parfois, sans le vouloir, écraser ses petits en se couchant.
-De par sa génétique, le bouledogue rencontre souvent des difficultés articulaires, des calculs rénaux et des problèmes de peau[3],[5].
+Outre certaines difficultés d'accouplement, la mise-bas pose fréquemment problème en raison de la conformation particulière des chiots (large boîte crânienne) et de l'étroitesse de la filière pelvienne de la mère. La césarienne, indispensable pour la survie des chiots et de la mère, est ainsi réalisée dans 80 % des cas,. Après la naissance, la mère peut parfois, sans le vouloir, écraser ses petits en se couchant.
+De par sa génétique, le bouledogue rencontre souvent des difficultés articulaires, des calculs rénaux et des problèmes de peau,.
 L'entretien se résume à un brossage régulier et à un nettoyage quotidien des oreilles et des plis de la face.
-Conséquences légales
-Début 2022, le tribunal d'Oslo (Norvège) donne raison à la Société protectrice des animaux norvégienne et interdit l’élevage sur le territoire de bouledogues anglais en raison des caractéristiques génétiques défavorables à leur bonne santé, car, du fait de la consanguinité de la race, cette pratique leur inflige de nombreuses maladies héréditaires et des souffrances incompatibles avec la loi sur la protection animale[3],[5].
 </t>
         </is>
       </c>
@@ -650,10 +668,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conséquences légales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début 2022, le tribunal d'Oslo (Norvège) donne raison à la Société protectrice des animaux norvégienne et interdit l’élevage sur le territoire de bouledogues anglais en raison des caractéristiques génétiques défavorables à leur bonne santé, car, du fait de la consanguinité de la race, cette pratique leur inflige de nombreuses maladies héréditaires et des souffrances incompatibles avec la loi sur la protection animale,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bulldog_anglais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bulldog_anglais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a souvent été utilisé comme personnage de dessin animé :
 Hector le bouledogue et Spike le bouledogue dans Titi et Grosminet et d'autres dessins animés de Looney Tunes
